--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Prok1-Prokr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Prok1-Prokr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -85,13 +88,7 @@
     <t>Prokr1</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01785833333333333</v>
+        <v>0.1903723333333333</v>
       </c>
       <c r="H2">
-        <v>0.053575</v>
+        <v>0.571117</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.7691179579859432</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.7691179579859432</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5123756666666667</v>
+        <v>2.419247</v>
       </c>
       <c r="N2">
-        <v>1.537127</v>
+        <v>7.257740999999999</v>
       </c>
       <c r="O2">
-        <v>0.04413754016342233</v>
+        <v>0.3378166463347285</v>
       </c>
       <c r="P2">
-        <v>0.04413754016342233</v>
+        <v>0.3378166463347285</v>
       </c>
       <c r="Q2">
-        <v>0.009150175447222223</v>
+        <v>0.4605576962996666</v>
       </c>
       <c r="R2">
-        <v>0.08235157902500001</v>
+        <v>4.145019266696999</v>
       </c>
       <c r="S2">
-        <v>0.04413754016342233</v>
+        <v>0.2598208492026259</v>
       </c>
       <c r="T2">
-        <v>0.04413754016342233</v>
+        <v>0.2598208492026259</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -602,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.01785833333333333</v>
+        <v>0.1903723333333333</v>
       </c>
       <c r="H3">
-        <v>0.053575</v>
+        <v>0.571117</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.7691179579859432</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.7691179579859432</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +623,22 @@
         <v>12.475503</v>
       </c>
       <c r="O3">
-        <v>0.3582254522374506</v>
+        <v>0.5806810390173532</v>
       </c>
       <c r="P3">
-        <v>0.3582254522374506</v>
+        <v>0.5806810390173534</v>
       </c>
       <c r="Q3">
-        <v>0.07426389702500001</v>
+        <v>0.7916635385390001</v>
       </c>
       <c r="R3">
-        <v>0.668375073225</v>
+        <v>7.124971846850999</v>
       </c>
       <c r="S3">
-        <v>0.3582254522374506</v>
+        <v>0.4466122149701825</v>
       </c>
       <c r="T3">
-        <v>0.3582254522374506</v>
+        <v>0.4466122149701826</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,46 +661,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.01785833333333333</v>
+        <v>0.1903723333333333</v>
       </c>
       <c r="H4">
-        <v>0.053575</v>
+        <v>0.571117</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.7691179579859432</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.7691179579859432</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>5.148553666666667</v>
+        <v>0.02378566666666667</v>
       </c>
       <c r="N4">
-        <v>15.445661</v>
+        <v>0.071357</v>
       </c>
       <c r="O4">
-        <v>0.4435114878198782</v>
+        <v>0.00332136162374866</v>
       </c>
       <c r="P4">
-        <v>0.4435114878198781</v>
+        <v>0.00332136162374866</v>
       </c>
       <c r="Q4">
-        <v>0.0919445875638889</v>
+        <v>0.004528132863222223</v>
       </c>
       <c r="R4">
-        <v>0.827501288075</v>
+        <v>0.040753195769</v>
       </c>
       <c r="S4">
-        <v>0.4435114878198782</v>
+        <v>0.002554518869790445</v>
       </c>
       <c r="T4">
-        <v>0.4435114878198781</v>
+        <v>0.002554518869790446</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,78 +723,78 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.01785833333333333</v>
+        <v>0.1903723333333333</v>
       </c>
       <c r="H5">
-        <v>0.053575</v>
+        <v>0.571117</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.7691179579859432</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.7691179579859432</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06764933333333333</v>
+        <v>0.5598866666666668</v>
       </c>
       <c r="N5">
-        <v>0.202948</v>
+        <v>1.67966</v>
       </c>
       <c r="O5">
-        <v>0.00582751165068744</v>
+        <v>0.07818095302416966</v>
       </c>
       <c r="P5">
-        <v>0.00582751165068744</v>
+        <v>0.07818095302416966</v>
       </c>
       <c r="Q5">
-        <v>0.001208104344444444</v>
+        <v>0.1065869311355556</v>
       </c>
       <c r="R5">
-        <v>0.0108729391</v>
+        <v>0.95928238022</v>
       </c>
       <c r="S5">
-        <v>0.00582751165068744</v>
+        <v>0.06013037494334432</v>
       </c>
       <c r="T5">
-        <v>0.00582751165068744</v>
+        <v>0.06013037494334432</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.01785833333333333</v>
+        <v>0.057148</v>
       </c>
       <c r="H6">
-        <v>0.053575</v>
+        <v>0.171444</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.2308820420140567</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.2308820420140567</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +803,214 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.721534333333333</v>
+        <v>2.419247</v>
       </c>
       <c r="N6">
-        <v>5.164603</v>
+        <v>7.257740999999999</v>
       </c>
       <c r="O6">
-        <v>0.1482980081285616</v>
+        <v>0.3378166463347285</v>
       </c>
       <c r="P6">
-        <v>0.1482980081285616</v>
+        <v>0.3378166463347285</v>
       </c>
       <c r="Q6">
-        <v>0.03074373396944445</v>
+        <v>0.138255127556</v>
       </c>
       <c r="R6">
-        <v>0.276693605725</v>
+        <v>1.244296148004</v>
       </c>
       <c r="S6">
-        <v>0.1482980081285616</v>
+        <v>0.07799579713210253</v>
       </c>
       <c r="T6">
-        <v>0.1482980081285616</v>
+        <v>0.07799579713210254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.057148</v>
+      </c>
+      <c r="H7">
+        <v>0.171444</v>
+      </c>
+      <c r="I7">
+        <v>0.2308820420140567</v>
+      </c>
+      <c r="J7">
+        <v>0.2308820420140567</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4.158501</v>
+      </c>
+      <c r="N7">
+        <v>12.475503</v>
+      </c>
+      <c r="O7">
+        <v>0.5806810390173532</v>
+      </c>
+      <c r="P7">
+        <v>0.5806810390173534</v>
+      </c>
+      <c r="Q7">
+        <v>0.237650015148</v>
+      </c>
+      <c r="R7">
+        <v>2.138850136332</v>
+      </c>
+      <c r="S7">
+        <v>0.1340688240471707</v>
+      </c>
+      <c r="T7">
+        <v>0.1340688240471707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.057148</v>
+      </c>
+      <c r="H8">
+        <v>0.171444</v>
+      </c>
+      <c r="I8">
+        <v>0.2308820420140567</v>
+      </c>
+      <c r="J8">
+        <v>0.2308820420140567</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.02378566666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.071357</v>
+      </c>
+      <c r="O8">
+        <v>0.00332136162374866</v>
+      </c>
+      <c r="P8">
+        <v>0.00332136162374866</v>
+      </c>
+      <c r="Q8">
+        <v>0.001359303278666667</v>
+      </c>
+      <c r="R8">
+        <v>0.012233729508</v>
+      </c>
+      <c r="S8">
+        <v>0.0007668427539582137</v>
+      </c>
+      <c r="T8">
+        <v>0.0007668427539582139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.057148</v>
+      </c>
+      <c r="H9">
+        <v>0.171444</v>
+      </c>
+      <c r="I9">
+        <v>0.2308820420140567</v>
+      </c>
+      <c r="J9">
+        <v>0.2308820420140567</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5598866666666668</v>
+      </c>
+      <c r="N9">
+        <v>1.67966</v>
+      </c>
+      <c r="O9">
+        <v>0.07818095302416966</v>
+      </c>
+      <c r="P9">
+        <v>0.07818095302416966</v>
+      </c>
+      <c r="Q9">
+        <v>0.03199640322666667</v>
+      </c>
+      <c r="R9">
+        <v>0.28796762904</v>
+      </c>
+      <c r="S9">
+        <v>0.01805057808082534</v>
+      </c>
+      <c r="T9">
+        <v>0.01805057808082534</v>
       </c>
     </row>
   </sheetData>
